--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95412.34435385019</v>
+        <v>17547618.19218943</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95412.34435385019</v>
+        <v>17547618.19218943</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75395.60479909193</v>
+        <v>9586745.717803752</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75395.60479909193</v>
+        <v>9586745.717803752</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608919567.222945</v>
+        <v>55991514.63524304</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12910.00184649763</v>
+        <v>1318076.59103034</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24937.99254915684</v>
+        <v>2500892.934397394</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36965.98325181601</v>
+        <v>3683709.277764449</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50946.09443754071</v>
+        <v>4555998.681811864</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63405.94037761009</v>
+        <v>5728593.513467804</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75713.5149324736</v>
+        <v>6873659.704561191</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88051.81689147628</v>
+        <v>8050541.697036289</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100297.9820987318</v>
+        <v>9224101.194033764</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114274.986544173</v>
+        <v>10097971.26367616</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126523.4392544963</v>
+        <v>11301854.69134796</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138596.9206761585</v>
+        <v>12475048.98796882</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>150670.4020978207</v>
+        <v>13648243.28458969</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162743.8835194828</v>
+        <v>14821437.58121056</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176648.1126078245</v>
+        <v>15702614.18396071</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>196694.2564034137</v>
+        <v>15928997.09640667</v>
       </c>
     </row>
   </sheetData>
